--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_297__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_297__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,7 +5417,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>4.42240571975708</c:v>
+                  <c:v>4.422409057617188</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>80.38895416259766</c:v>
@@ -5456,7 +5456,7 @@
                   <c:v>-0.2754765748977661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79.3802490234375</c:v>
+                  <c:v>79.38024139404297</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>93.99485015869141</c:v>
@@ -5474,10 +5474,10 @@
                   <c:v>-0.2754765748977661</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94.83489227294922</c:v>
+                  <c:v>94.83489990234375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.93543434143066</c:v>
+                  <c:v>25.93543243408203</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>94.29096221923828</c:v>
@@ -5537,7 +5537,7 @@
                   <c:v>59.07314300537109</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>95.04566192626953</c:v>
+                  <c:v>95.04566955566406</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.2754765748977661</c:v>
@@ -5558,7 +5558,7 @@
                   <c:v>94.647705078125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.073445796966553</c:v>
+                  <c:v>2.07344651222229</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-0.2754765748977661</c:v>
@@ -5576,10 +5576,10 @@
                   <c:v>94.76018524169922</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.56792449951172</c:v>
+                  <c:v>87.56791687011719</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>94.53791809082031</c:v>
+                  <c:v>94.53791046142578</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>-0.2754765748977661</c:v>
@@ -5603,13 +5603,13 @@
                   <c:v>-0.2754765748977661</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.688030958175659</c:v>
+                  <c:v>3.688027858734131</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>-0.2754765748977661</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94.40352630615234</c:v>
+                  <c:v>94.40351867675781</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.2754765748977661</c:v>
@@ -5633,7 +5633,7 @@
                   <c:v>86.0128173828125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.04894256591797</c:v>
+                  <c:v>96.04893493652344</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-0.2754765748977661</c:v>
@@ -5642,7 +5642,7 @@
                   <c:v>95.12905883789062</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>95.63652038574219</c:v>
+                  <c:v>95.63652801513672</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>84.44989776611328</c:v>
@@ -5660,7 +5660,7 @@
                   <c:v>94.57395172119141</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>67.82522583007812</c:v>
+                  <c:v>67.82524108886719</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.2754765748977661</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.42240571975708</v>
+        <v>4.422409057617188</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>79.3802490234375</v>
+        <v>79.38024139404297</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>94.83489227294922</v>
+        <v>94.83489990234375</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>25.93543434143066</v>
+        <v>25.93543243408203</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>95.04566192626953</v>
+        <v>95.04566955566406</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2.073445796966553</v>
+        <v>2.07344651222229</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>87.56792449951172</v>
+        <v>87.56791687011719</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>94.53791809082031</v>
+        <v>94.53791046142578</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>3.688030958175659</v>
+        <v>3.688027858734131</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>94.40352630615234</v>
+        <v>94.40351867675781</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>96.04894256591797</v>
+        <v>96.04893493652344</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>95.63652038574219</v>
+        <v>95.63652801513672</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>67.82522583007812</v>
+        <v>67.82524108886719</v>
       </c>
     </row>
     <row r="84" spans="1:6">
